--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha4</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H2">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N2">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q2">
-        <v>0.8657038213383332</v>
+        <v>2.814614550505778</v>
       </c>
       <c r="R2">
-        <v>7.791334392044998</v>
+        <v>25.331530954552</v>
       </c>
       <c r="S2">
-        <v>0.1718005552422441</v>
+        <v>0.3009021620338145</v>
       </c>
       <c r="T2">
-        <v>0.1718005552422442</v>
+        <v>0.3009021620338145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H3">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P3">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q3">
-        <v>1.554024143001889</v>
+        <v>4.121576894581556</v>
       </c>
       <c r="R3">
-        <v>13.986217287017</v>
+        <v>37.094192051234</v>
       </c>
       <c r="S3">
-        <v>0.3083990205967168</v>
+        <v>0.4406256616364562</v>
       </c>
       <c r="T3">
-        <v>0.3083990205967169</v>
+        <v>0.4406256616364562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H4">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N4">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O4">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P4">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q4">
-        <v>0.1794295686987777</v>
+        <v>0.5269199769608889</v>
       </c>
       <c r="R4">
-        <v>1.614866118289</v>
+        <v>4.742279792648</v>
       </c>
       <c r="S4">
-        <v>0.03560813614253297</v>
+        <v>0.05633146473212396</v>
       </c>
       <c r="T4">
-        <v>0.03560813614253298</v>
+        <v>0.05633146473212397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H5">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I5">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J5">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N5">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O5">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P5">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q5">
-        <v>0.002557506004222222</v>
+        <v>0.0007754076986666667</v>
       </c>
       <c r="R5">
-        <v>0.023017554038</v>
+        <v>0.006978669288</v>
       </c>
       <c r="S5">
-        <v>0.0005075418875724617</v>
+        <v>8.28965561002082E-05</v>
       </c>
       <c r="T5">
-        <v>0.0005075418875724618</v>
+        <v>8.28965561002082E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H6">
         <v>0.242609</v>
       </c>
       <c r="I6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N6">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q6">
-        <v>0.5814055945783333</v>
+        <v>0.7127269080137778</v>
       </c>
       <c r="R6">
-        <v>5.232650351205</v>
+        <v>6.414542172123999</v>
       </c>
       <c r="S6">
-        <v>0.1153810362244751</v>
+        <v>0.07619553715533919</v>
       </c>
       <c r="T6">
-        <v>0.1153810362244751</v>
+        <v>0.07619553715533919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H7">
         <v>0.242609</v>
       </c>
       <c r="I7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P7">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q7">
-        <v>1.043680654492556</v>
+        <v>1.043680654492555</v>
       </c>
       <c r="R7">
-        <v>9.393125890433002</v>
+        <v>9.393125890433</v>
       </c>
       <c r="S7">
-        <v>0.2071203932774765</v>
+        <v>0.111576828647192</v>
       </c>
       <c r="T7">
-        <v>0.2071203932774765</v>
+        <v>0.111576828647192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H8">
         <v>0.242609</v>
       </c>
       <c r="I8">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J8">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N8">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O8">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P8">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q8">
-        <v>0.1205046720401111</v>
+        <v>0.1334285882528889</v>
       </c>
       <c r="R8">
-        <v>1.084542048361</v>
+        <v>1.200857294276</v>
       </c>
       <c r="S8">
-        <v>0.02391437932406283</v>
+        <v>0.01426445787228636</v>
       </c>
       <c r="T8">
-        <v>0.02391437932406284</v>
+        <v>0.01426445787228636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H9">
         <v>0.242609</v>
       </c>
       <c r="I9">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J9">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,276 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N9">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O9">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P9">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q9">
-        <v>0.001717617806888889</v>
+        <v>0.0001963515506666667</v>
       </c>
       <c r="R9">
-        <v>0.015458560262</v>
+        <v>0.001767163956</v>
       </c>
       <c r="S9">
-        <v>0.0003408644915778314</v>
+        <v>2.099136668773175E-05</v>
       </c>
       <c r="T9">
-        <v>0.0003408644915778315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.031934</v>
-      </c>
-      <c r="H10">
-        <v>0.095802</v>
-      </c>
-      <c r="I10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.189414999999999</v>
-      </c>
-      <c r="N10">
-        <v>21.568245</v>
-      </c>
-      <c r="O10">
-        <v>0.3327435204651371</v>
-      </c>
-      <c r="P10">
-        <v>0.3327435204651371</v>
-      </c>
-      <c r="Q10">
-        <v>0.22958677861</v>
-      </c>
-      <c r="R10">
-        <v>2.06628100749</v>
-      </c>
-      <c r="S10">
-        <v>0.04556192899841787</v>
-      </c>
-      <c r="T10">
-        <v>0.04556192899841788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.031934</v>
-      </c>
-      <c r="H11">
-        <v>0.095802</v>
-      </c>
-      <c r="I11">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J11">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>12.90571233333333</v>
-      </c>
-      <c r="N11">
-        <v>38.717137</v>
-      </c>
-      <c r="O11">
-        <v>0.5973075912162077</v>
-      </c>
-      <c r="P11">
-        <v>0.5973075912162079</v>
-      </c>
-      <c r="Q11">
-        <v>0.4121310176526666</v>
-      </c>
-      <c r="R11">
-        <v>3.709179158874</v>
-      </c>
-      <c r="S11">
-        <v>0.0817881773420145</v>
-      </c>
-      <c r="T11">
-        <v>0.08178817734201453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.031934</v>
-      </c>
-      <c r="H12">
-        <v>0.095802</v>
-      </c>
-      <c r="I12">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J12">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.490109666666666</v>
-      </c>
-      <c r="N12">
-        <v>4.470329</v>
-      </c>
-      <c r="O12">
-        <v>0.0689658805849709</v>
-      </c>
-      <c r="P12">
-        <v>0.06896588058497091</v>
-      </c>
-      <c r="Q12">
-        <v>0.04758516209533332</v>
-      </c>
-      <c r="R12">
-        <v>0.428266458858</v>
-      </c>
-      <c r="S12">
-        <v>0.009443365118375109</v>
-      </c>
-      <c r="T12">
-        <v>0.009443365118375111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.031934</v>
-      </c>
-      <c r="H13">
-        <v>0.095802</v>
-      </c>
-      <c r="I13">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J13">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.02123933333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.063718</v>
-      </c>
-      <c r="O13">
-        <v>0.0009830077336842938</v>
-      </c>
-      <c r="P13">
-        <v>0.000983007733684294</v>
-      </c>
-      <c r="Q13">
-        <v>0.0006782568706666666</v>
-      </c>
-      <c r="R13">
-        <v>0.006104311836</v>
-      </c>
-      <c r="S13">
-        <v>0.0001346013545340008</v>
-      </c>
-      <c r="T13">
-        <v>0.0001346013545340008</v>
+        <v>2.099136668773175E-05</v>
       </c>
     </row>
   </sheetData>
